--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06441733333333333</v>
+        <v>0.020676</v>
       </c>
       <c r="H2">
-        <v>0.193252</v>
+        <v>0.062028</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="N2">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="O2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="P2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="Q2">
-        <v>0.01733882710933333</v>
+        <v>0.004526955064000001</v>
       </c>
       <c r="R2">
-        <v>0.156049443984</v>
+        <v>0.040742595576</v>
       </c>
       <c r="S2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="T2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06441733333333333</v>
+        <v>0.020676</v>
       </c>
       <c r="H3">
-        <v>0.193252</v>
+        <v>0.062028</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>60.237349</v>
       </c>
       <c r="O3">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="P3">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="Q3">
-        <v>1.293443129883111</v>
+        <v>0.4151558093080001</v>
       </c>
       <c r="R3">
-        <v>11.640988168948</v>
+        <v>3.736402283772</v>
       </c>
       <c r="S3">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="T3">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06441733333333333</v>
+        <v>0.020676</v>
       </c>
       <c r="H4">
-        <v>0.193252</v>
+        <v>0.062028</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="N4">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="O4">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="P4">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="Q4">
-        <v>0.2700108999195556</v>
+        <v>0.058379320064</v>
       </c>
       <c r="R4">
-        <v>2.430098099276</v>
+        <v>0.525413880576</v>
       </c>
       <c r="S4">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="T4">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06441733333333333</v>
+        <v>0.020676</v>
       </c>
       <c r="H5">
-        <v>0.193252</v>
+        <v>0.062028</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="N5">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="O5">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="P5">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="Q5">
-        <v>0.01124681547866667</v>
+        <v>0.003395902052</v>
       </c>
       <c r="R5">
-        <v>0.101221339308</v>
+        <v>0.030563118468</v>
       </c>
       <c r="S5">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="T5">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
     </row>
   </sheetData>
